--- a/Dokumentation Performance Testing.xlsx
+++ b/Dokumentation Performance Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danij\IdeaProjects\apm-fs23_my_fork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED9FB0A-2035-42E1-B406-4462529B857D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6564C2B-DB83-44AF-82E6-D47621D135D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6BE6B3FF-C022-49A2-B059-0F07D6398431}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t>Ergebnisse der Performance-Analyse</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Max: 429.2 ms</t>
+  </si>
+  <si>
+    <t>Speedup:</t>
   </si>
 </sst>
 </file>
@@ -851,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F13724-840A-4AC4-8401-93AEF155463F}">
-  <dimension ref="A1:N223"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D231" sqref="D231"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,6 +2547,19 @@
         <v>22</v>
       </c>
     </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>86</v>
+      </c>
+      <c r="B225">
+        <f xml:space="preserve"> 887.4/226.7</f>
+        <v>3.9144243493603881</v>
+      </c>
+      <c r="D225">
+        <f>1022.1/248.9</f>
+        <v>4.1064684612294098</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
